--- a/proj/gastosConstrucao.xlsx
+++ b/proj/gastosConstrucao.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\alura-git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorio\alura-git\proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17126C78-5B44-41DC-B9C6-B8AF9462CEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -88,9 +89,6 @@
     <t>Ganhos Casa</t>
   </si>
   <si>
-    <t>Doação Saco de cimento</t>
-  </si>
-  <si>
     <t>Item</t>
   </si>
   <si>
@@ -124,31 +122,34 @@
     <t>Ganhos (Itens, doação)</t>
   </si>
   <si>
-    <t>Tanque 2 cubas</t>
-  </si>
-  <si>
     <t>Doação Dinheiro (Ir Rogerio)</t>
   </si>
   <si>
-    <t>24m² Laje H8 Isopor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedra brita </t>
-  </si>
-  <si>
-    <t>Areia media branca</t>
-  </si>
-  <si>
-    <t>Cimento Caue</t>
-  </si>
-  <si>
-    <t>a</t>
+    <t>Caçamba</t>
+  </si>
+  <si>
+    <t>Doação Saco de cimento (Ir Miguel)</t>
+  </si>
+  <si>
+    <t>Tanque 2 cubas (Miriam)</t>
+  </si>
+  <si>
+    <t>24m² Laje H8 Isopor (Vô)</t>
+  </si>
+  <si>
+    <t>Pedra brita (Vô)</t>
+  </si>
+  <si>
+    <t>Areia media branca (Vô)</t>
+  </si>
+  <si>
+    <t>Cimento Caue (Vô)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -240,7 +241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -250,7 +251,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -578,11 +578,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,7 +595,7 @@
     <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="1"/>
     <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.140625" style="1" bestFit="1" customWidth="1"/>
@@ -603,22 +603,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="F1" s="10" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="F1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="I1" s="10" t="s">
+      <c r="G1" s="9"/>
+      <c r="I1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -634,13 +634,13 @@
         <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>3</v>
@@ -673,7 +673,7 @@
         <v>260</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
@@ -707,7 +707,7 @@
         <v>385</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J4" s="1">
         <v>10</v>
@@ -741,7 +741,7 @@
         <v>200</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
@@ -769,7 +769,7 @@
         <v>324</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
@@ -797,7 +797,7 @@
         <v>90</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
@@ -825,7 +825,7 @@
         <v>25</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J8" s="1">
         <v>2</v>
@@ -853,7 +853,7 @@
         <v>25</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J9" s="1">
         <v>2</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
@@ -881,7 +881,7 @@
         <v>1357</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J10" s="1">
         <v>15</v>
@@ -896,7 +896,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="3">
         <v>13</v>
@@ -924,15 +924,12 @@
         <f>B12*C12</f>
         <v>338</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3">
         <v>4</v>
@@ -949,7 +946,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="3">
         <v>26</v>
@@ -966,7 +963,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="3">
         <v>2</v>
@@ -982,7 +979,19 @@
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>300</v>
+      </c>
+      <c r="D16" s="1">
+        <f>B16*C16</f>
+        <v>600</v>
+      </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
@@ -990,28 +999,28 @@
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="6">
-        <f>SUM(D3:D15)</f>
-        <v>4712</v>
-      </c>
-      <c r="F18" s="8" t="s">
+      <c r="A18" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="9">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="5">
+        <f>SUM(D3:D16)</f>
+        <v>5312</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="8">
         <f>SUM(G3:G11)</f>
         <v>845</v>
       </c>
-      <c r="I18" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="7">
+      <c r="I18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="6">
         <f>SUM(L3:L11)</f>
         <v>4170.8500000000004</v>
       </c>
@@ -1030,6 +1039,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B655CA907DD9EF44A66FB8CFEB29EF80" ma:contentTypeVersion="13" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="bdd9a8384c84c869c8f2c2b06b7729db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="303a2f66-6621-4033-a0f0-0ba5ae7d9114" xmlns:ns4="65096444-677c-4475-ad36-c522b2c195a0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cd76e10f6094a158d382b3c200260e43" ns3:_="" ns4:_="">
     <xsd:import namespace="303a2f66-6621-4033-a0f0-0ba5ae7d9114"/>
@@ -1252,22 +1276,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BC58394-767E-4359-9050-165FE83F22AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="303a2f66-6621-4033-a0f0-0ba5ae7d9114"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="65096444-677c-4475-ad36-c522b2c195a0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADE8D821-93D0-495C-9456-69DA1F255BF6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBA2B59-065B-41BB-A16F-D3F989518780}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1284,29 +1318,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADE8D821-93D0-495C-9456-69DA1F255BF6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BC58394-767E-4359-9050-165FE83F22AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="303a2f66-6621-4033-a0f0-0ba5ae7d9114"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="65096444-677c-4475-ad36-c522b2c195a0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>